--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -528,34 +528,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.26463766184903</v>
+        <v>4.528161333333333</v>
       </c>
       <c r="H2">
-        <v>4.26463766184903</v>
+        <v>13.584484</v>
       </c>
       <c r="I2">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="J2">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N2">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>52.53090225177137</v>
+        <v>55.9502904810569</v>
       </c>
       <c r="R2">
-        <v>52.53090225177137</v>
+        <v>503.552614329512</v>
       </c>
       <c r="S2">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="T2">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10005712551939</v>
+        <v>6.270951666666666</v>
       </c>
       <c r="H3">
-        <v>6.10005712551939</v>
+        <v>18.812855</v>
       </c>
       <c r="I3">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="J3">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N3">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>75.13920993980668</v>
+        <v>77.48433448248778</v>
       </c>
       <c r="R3">
-        <v>75.13920993980668</v>
+        <v>697.35901034239</v>
       </c>
       <c r="S3">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="T3">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.13084094130663</v>
+        <v>3.240161666666667</v>
       </c>
       <c r="H4">
-        <v>3.13084094130663</v>
+        <v>9.720485</v>
       </c>
       <c r="I4">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="J4">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N4">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>38.56503470972832</v>
+        <v>40.03567300508112</v>
       </c>
       <c r="R4">
-        <v>38.56503470972832</v>
+        <v>360.32105704573</v>
       </c>
       <c r="S4">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="T4">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
     </row>
   </sheetData>
